--- a/Data_Formateada.xlsx
+++ b/Data_Formateada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piero\Downloads\Optimizacion_Programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D403E7-28BC-4CE7-B270-9EA26E368B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61AA5D4-6850-4187-ABA3-8DDF5DD09226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:AJ111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
